--- a/PWBE_2/Integrador/Dados Integrador/Histórico.xlsx
+++ b/PWBE_2/Integrador/Dados Integrador/Histórico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51086142845\Documents\DS12\Jonathan_Brasil\SENAI\SENAI_Segundo_Termo\PWBE_2\Integrador\Dados Integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A644ECD3-C749-4D0C-A06E-A8D4E3D36306}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BD828D-84FA-4EF0-B8BB-26966302FA51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E0D64BB0-119D-4F51-B493-12140F539A99}"/>
   </bookViews>
@@ -1636,7 +1636,40 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1647,6 +1680,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F3EF5D4-66FE-4E6C-AF77-19C72CA26275}" name="Tabela1" displayName="Tabela1" ref="A1:D500" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D500" xr:uid="{B2A4C00F-5739-42BE-BF1C-CD4ECA02F6DF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7DC6F4F0-2E3B-45BE-83F7-0E987B56B68D}" name="sensor"/>
+    <tableColumn id="2" xr3:uid="{256F5E52-4FB5-4A63-AA67-A0B239274D63}" name="ambiente"/>
+    <tableColumn id="3" xr3:uid="{5E23EF99-CAA6-4E74-944E-7A063BA5C933}" name="valor"/>
+    <tableColumn id="4" xr3:uid="{DFA326E3-0E7D-46AA-A552-52F711C262BE}" name="timestamp" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1948,15 +1994,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA0D37C-CBA2-4B2A-8373-8B1BBE5A8626}">
   <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8963,5 +9008,8 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>